--- a/data/trans_orig/CAGE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CAGE-Estudios-trans_orig.xlsx
@@ -1065,7 +1065,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -1634,7 +1634,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -2203,7 +2203,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -2772,7 +2772,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -3580,7 +3580,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -4149,7 +4149,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -4718,7 +4718,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -5287,7 +5287,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -6095,7 +6095,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -6664,7 +6664,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -7233,7 +7233,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -7802,7 +7802,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -8610,7 +8610,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -9179,7 +9179,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -9748,7 +9748,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -10317,7 +10317,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
